--- a/medicine/Psychotrope/Bagnoli_di_Sopra_bianco/Bagnoli_di_Sopra_bianco.xlsx
+++ b/medicine/Psychotrope/Bagnoli_di_Sopra_bianco/Bagnoli_di_Sopra_bianco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bagnoli di Sopra bianco est un vin blanc italien de la région Vénétie doté d'une appellation DOC depuis le 16 août 1995. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Padoue dans les communes de Agna, Arre, Bagnoli di Sopra, Battaglia Terme, Bovolenta, Candiana, Due Carrare, Cartura, Conselve, Monselice, Pernumia, San Pietro Viminario, Terrassa Padovana et Tribano. Le vignoble Colli Euganei est à quelques kilomètres.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille plus ou moins intense
 odeur : vineux, caractéristique, agréablement parfumé
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,6 +622,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +649,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres :
 Padoue  (1995/96)  219,0
